--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB3248-4DE6-479E-B3CF-984E1C5A92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B2F51-92D6-45EC-94D2-8E936B3C1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -49,38 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Functional Correctness (90)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functional Completeness (26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functional Appropriateness (12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource Utilization (28)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Behaviour (28)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Capability (11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Modularity (48)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analysability (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reusability (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adaptability (17)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scalability (13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interoperability (9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Co-existence (7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,26 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Functional Suitability (92)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance Efficiency (49)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maintainability (50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reliability (34)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flexibility (25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Compatibility (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cross-Reflection (13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Retrieval-Augmented Generation (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,22 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Agent Adapter (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single-Path Plan Generator (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prompt/Response Optimiser (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role-Based Cooperation (47)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Debate-Based Cooperation (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code Review (7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Software Testing (6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>End-to-End Software Development (8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End-to-End Software Maintenance (8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,27 +189,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reducing the Difficulty of Task Resolution (21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Improving the Efficiency of Generating Software Artifacts (23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simulating Human Processes of Solving SE Tasks (30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving the Quality of Generated Code (43)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Optimizing Software Resource Management (27)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Improving the Adaptability of Agent System (19)</t>
+    <t>End-to-End Software Development (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Review (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Suitability (90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Correctness (86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Completeness (25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Appropriateness (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Efficiency (48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Utilization (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Behaviour (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modularity (47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysability (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintainability (48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexibility (24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptability (16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scalability (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interoperability (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role-Based Cooperation (45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross-Reflection (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent Adapter (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-Path Plan Generator (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt/Response Optimiser (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Quality of Generated Code (42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulating Human Processes of Solving SE Tasks (29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing the Difficulty of Task Resolution (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Adaptability of Agent System (18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +320,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>13)</t>
+      <t>12)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,19 +429,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +726,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,28 +900,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,28 +929,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -958,19 +958,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,19 +978,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -998,19 +998,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1018,19 +1018,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1038,30 +1038,30 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B2F51-92D6-45EC-94D2-8E936B3C1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C92E4-21FF-4879-AB4B-5837760FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Requirements Engineering (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End-to-End Software Maintenance (8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,18 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Functional Suitability (90)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Functional Correctness (86)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Functional Completeness (25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Functional Appropriateness (11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,18 +221,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Modularity (47)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Analysability (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maintainability (48)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flexibility (24)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Role-Based Cooperation (45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cross-Reflection (12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,14 +258,6 @@
   </si>
   <si>
     <t>Improving the Quality of Generated Code (42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulating Human Processes of Solving SE Tasks (29)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reducing the Difficulty of Task Resolution (20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +290,38 @@
       </rPr>
       <t>12)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements Engineering (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Completeness (24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional Suitability (89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modularity (46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintainability (47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role-Based Cooperation (44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulating Human Processes of Solving SE Tasks (28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing the Difficulty of Task Resolution (19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,13 +434,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +726,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,28 +871,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,9 +900,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -911,17 +911,17 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,9 +929,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -940,7 +940,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -949,7 +949,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -960,17 +960,17 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,18 +978,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -1009,7 +1009,7 @@
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -1029,7 +1029,7 @@
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C92E4-21FF-4879-AB4B-5837760FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF2FFB3-96D4-4774-8408-D5112633A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Quality Attributes" sheetId="2" r:id="rId2"/>
     <sheet name="Design Patterns" sheetId="3" r:id="rId3"/>
-    <sheet name="Rationale" sheetId="4" r:id="rId4"/>
+    <sheet name="Design Rationale" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human-Reflection (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Debate-Based Cooperation (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +238,6 @@
   </si>
   <si>
     <t>Cross-Reflection (12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agent Adapter (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +314,14 @@
   </si>
   <si>
     <t>Reducing the Difficulty of Task Resolution (19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent Adapter (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human-Reflection (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF2FFB3-96D4-4774-8408-D5112633A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C148D8CB-AE26-4868-8CD4-8DE6AFB29B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>Faultlessness (13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-existence (7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,10 @@
   </si>
   <si>
     <t>Human-Reflection (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-Existence (7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +834,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1007,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1018,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -1027,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="11"/>
     </row>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C148D8CB-AE26-4868-8CD4-8DE6AFB29B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD44608-5B2E-4C68-8B7A-E7661120962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>Code Translation (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software Deployment (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,10 @@
   </si>
   <si>
     <t>Co-Existence (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release Management (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +726,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD44608-5B2E-4C68-8B7A-E7661120962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB36E9-F6E7-4B1E-9D21-E0252C8979B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -242,10 +242,6 @@
   </si>
   <si>
     <t>Improving the Quality of Generated Code (42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving the Adaptability of Agent System (18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,10 @@
   </si>
   <si>
     <t>Release Management (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Adaptability of Agent Systems (18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB36E9-F6E7-4B1E-9D21-E0252C8979B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEEEAC-1232-4C2A-AFBB-EA503FC9C7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capability (11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reusability (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
   </si>
   <si>
     <t>Resource Utilization (27)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Behaviour (27)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +314,14 @@
   </si>
   <si>
     <t>Improving the Adaptability of Agent Systems (18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Behavior (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity (11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="11"/>
     </row>
@@ -947,10 +947,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -958,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="11"/>
     </row>
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1007,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1018,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -1027,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11"/>
     </row>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEEEAC-1232-4C2A-AFBB-EA503FC9C7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90A63D-D5B8-41CE-84BC-349CB65593AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>Rationale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ensuring Software Security (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reducing the Difficulty of Task Resolution (19)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Agent Adapter (6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,6 +314,14 @@
   </si>
   <si>
     <t>Capacity (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing the Difficulty of Task Resolution (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ensuring Software Security (3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">

--- a/Summarized_Results.xlsx
+++ b/Summarized_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90A63D-D5B8-41CE-84BC-349CB65593AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B3F03B-F1B3-4399-A1E2-541CE7CA8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="1540" windowWidth="12470" windowHeight="11130" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>Self-Reflection (34)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool/Agent Registry (14)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,10 @@
   </si>
   <si>
     <t>Ensuring Software Security (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool-Agent Registry (14)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -918,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -967,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
